--- a/planilhas/CTC.DAS.xlsx
+++ b/planilhas/CTC.DAS.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\CAA\Levantamento manutenção Ar Condicionado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4007AE36-C6C6-4DE8-990E-14439631A591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE947565-8EE8-4DD3-9DE5-A219EDF11EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unidade DAS_CTC" sheetId="1" r:id="rId1"/>
+    <sheet name="DasCTC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
